--- a/WEIT-Deutsch-Alignierung/Alignierung.xlsx
+++ b/WEIT-Deutsch-Alignierung/Alignierung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2bdf333724b9168b/Code/SprachKompMess/WEIT-Deutsch-Alignierung/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{50B36A9B-E3B6-4363-BE27-DBFDC7290816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="140" documentId="8_{50B36A9B-E3B6-4363-BE27-DBFDC7290816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B764F6C-D961-4881-85A2-8539B9F6593D}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{75B75064-0063-4A04-B7A8-B873038A0220}"/>
   </bookViews>
@@ -43,8 +43,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="40">
   <si>
     <t>Die Häuser sind nicht sehr schön und viel zu teuer.</t>
   </si>
@@ -55,9 +77,6 @@
     <t>Das Restaurant sollte sehr gutes Essen haben.</t>
   </si>
   <si>
-    <t>Meine Ehefrau hat einen sehr guten Sinn für Humor.</t>
-  </si>
-  <si>
     <t>Den meisten Spaß hatte ich als wir in der Oper waren.</t>
   </si>
   <si>
@@ -71,13 +90,109 @@
   </si>
   <si>
     <t>Je kleiner eine Universität ist, desto besser ist die Betreuung.</t>
+  </si>
+  <si>
+    <t>Original</t>
+  </si>
+  <si>
+    <t>Response 3</t>
+  </si>
+  <si>
+    <t>Response 1</t>
+  </si>
+  <si>
+    <t>Response 2</t>
+  </si>
+  <si>
+    <t>Response 4</t>
+  </si>
+  <si>
+    <t>Response 5</t>
+  </si>
+  <si>
+    <t>Meine Ehefrau hat einen sehr guten Sinn für Humor.</t>
+  </si>
+  <si>
+    <t>Die hauser sind nich shon und sehr teuer</t>
+  </si>
+  <si>
+    <t>die haußer sind die</t>
+  </si>
+  <si>
+    <t>Die Häuser sind nicht mer schön und</t>
+  </si>
+  <si>
+    <t>Die Häuser sind nicht sehr schön und viel zu teuer</t>
+  </si>
+  <si>
+    <t>Die Häuser sind nicht zu schön, und ist teuer.</t>
+  </si>
+  <si>
+    <t>Response</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>Die</t>
+  </si>
+  <si>
+    <t>hauser</t>
+  </si>
+  <si>
+    <t>sind</t>
+  </si>
+  <si>
+    <t>nich</t>
+  </si>
+  <si>
+    <t>shon</t>
+  </si>
+  <si>
+    <t>und</t>
+  </si>
+  <si>
+    <t>teuer</t>
+  </si>
+  <si>
+    <t>sehr</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>haußer</t>
+  </si>
+  <si>
+    <t>Häuser</t>
+  </si>
+  <si>
+    <t>nicht</t>
+  </si>
+  <si>
+    <t>mer</t>
+  </si>
+  <si>
+    <t>schön</t>
+  </si>
+  <si>
+    <t>viel</t>
+  </si>
+  <si>
+    <t>zu</t>
+  </si>
+  <si>
+    <t>ist</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,16 +208,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -125,13 +261,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -466,38 +646,395 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADBF60F1-5743-407F-B6DC-F59E2D80B2FE}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="6" width="11.3984375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" s="6" t="str" cm="1">
+        <f t="array" ref="A4:A13">_xlfn.TEXTSPLIT(A1, ," ")</f>
+        <v>Die</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" s="6" t="str">
+        <v>Häuser</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6" s="6" t="str">
+        <v>sind</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" s="6" t="str">
+        <v>nicht</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8" s="6" t="str">
+        <v>sehr</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9" s="6" t="str">
+        <v>schön</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10" s="6" t="str">
+        <v>und</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A11" s="6" t="str">
+        <v>viel</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A12" s="6" t="str">
+        <v>zu</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A13" s="6" t="str">
+        <v>teuer.</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>4</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>5</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B11:B12"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{877ABC3B-6619-488B-9984-86AC8372237F}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="6" width="11.265625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" s="6" t="str" cm="1">
+        <f t="array" ref="A4:A11">_xlfn.TEXTSPLIT(A1, ," ")</f>
+        <v>Der</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" s="6" t="str">
+        <v>Junge,</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6" s="6" t="str">
+        <v>dessen</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" s="6" t="str">
+        <v>Katze</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8" s="6" t="str">
+        <v>gestern</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9" s="6" t="str">
+        <v>starb,</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10" s="6" t="str">
+        <v>ist</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A11" s="6" t="str">
+        <v>traurig.</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -506,16 +1043,112 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD49F9E2-F02F-4742-BB5B-151502069BA8}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="6" width="10.9296875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" s="6" t="str" cm="1">
+        <f t="array" ref="A4:A10">_xlfn.TEXTSPLIT(A1, ," ")</f>
+        <v>Das</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" s="6" t="str">
+        <v>Restaurant</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6" s="6" t="str">
+        <v>sollte</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" s="6" t="str">
+        <v>sehr</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8" s="6" t="str">
+        <v>gutes</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9" s="6" t="str">
+        <v>Essen</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10" s="6" t="str">
+        <v>haben.</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -524,18 +1157,132 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3615977F-F844-4157-812F-A1BAF0B42B87}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="6" width="11.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>3</v>
-      </c>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" s="6" t="str" cm="1">
+        <f t="array" ref="A4:A12">_xlfn.TEXTSPLIT(A1, ," ")</f>
+        <v>Meine</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" s="6" t="str">
+        <v>Ehefrau</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6" s="6" t="str">
+        <v>hat</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" s="6" t="str">
+        <v>einen</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8" s="6" t="str">
+        <v>sehr</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9" s="6" t="str">
+        <v>guten</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10" s="6" t="str">
+        <v>Sinn</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A11" s="6" t="str">
+        <v>für</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A12" s="6" t="str">
+        <v>Humor.</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -544,18 +1291,151 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E50BC9D-F304-4CAE-B819-AF69CE9588B8}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="6" width="11.19921875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" s="6" t="str" cm="1">
+        <f t="array" ref="A4:A14">_xlfn.TEXTSPLIT(A1, ," ")</f>
+        <v>Den</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" s="6" t="str">
+        <v>meisten</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6" s="6" t="str">
+        <v>Spaß</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" s="6" t="str">
+        <v>hatte</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8" s="6" t="str">
+        <v>ich</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9" s="6" t="str">
+        <v>als</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10" s="6" t="str">
+        <v>wir</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A11" s="6" t="str">
+        <v>in</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A12" s="6" t="str">
+        <v>der</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A13" s="6" t="str">
+        <v>Oper</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A14" t="str">
+        <v>waren.</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -564,18 +1444,151 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE12B06E-22C4-4E4B-A82F-FCDAFC17AC0F}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A3" sqref="A3:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="6" width="10.9296875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" s="6" t="str" cm="1">
+        <f t="array" ref="A4:A14">_xlfn.TEXTSPLIT(A1, ," ")</f>
+        <v>Ich</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" s="6" t="str">
+        <v>wünschte,</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6" s="6" t="str">
+        <v>dass</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" s="6" t="str">
+        <v>ich</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8" s="6" t="str">
+        <v>mir</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9" s="6" t="str">
+        <v>die</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10" s="6" t="str">
+        <v>Kosten</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A11" s="6" t="str">
+        <v>von</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A12" s="6" t="str">
+        <v>Häusern</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A13" s="6" t="str">
+        <v>leisten</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A14" t="str">
+        <v>könnte.</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -584,16 +1597,192 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DFE6AC8-5237-4BB1-9EAE-074F3BC87A56}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="6" width="11.1328125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>6</v>
-      </c>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" s="6" t="str" cm="1">
+        <f t="array" ref="A4:A18">_xlfn.TEXTSPLIT(A1, ," ")</f>
+        <v>Die</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" s="6" t="str">
+        <v>Prüfung</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6" s="6" t="str">
+        <v>war</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" s="6" t="str">
+        <v>nicht</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8" s="6" t="str">
+        <v>so</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9" s="6" t="str">
+        <v>schwer</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10" s="6" t="str">
+        <v>im</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A11" s="6" t="str">
+        <v>Vergleich</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A12" s="6" t="str">
+        <v>zu</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A13" s="6" t="str">
+        <v>dem</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A14" t="str">
+        <v>was</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A15" t="str">
+        <v>Du</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A16" t="str">
+        <v>mir</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A17" t="str">
+        <v>erzählt</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A18" t="str">
+        <v>hast.</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -602,16 +1791,162 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59A623DE-5065-477E-BD1D-0896E3FB4667}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="6" width="11.19921875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" s="6" t="str" cm="1">
+        <f t="array" ref="A4:A15">_xlfn.TEXTSPLIT(A1, ," ")</f>
+        <v>Die</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" s="6" t="str">
+        <v>Anzahl</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6" s="6" t="str">
+        <v>von</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" s="6" t="str">
+        <v>Leuten,</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8" s="6" t="str">
+        <v>die</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9" s="6" t="str">
+        <v>Zigaretten</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10" s="6" t="str">
+        <v>rauchen,</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A11" s="6" t="str">
+        <v>steigt</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A12" s="6" t="str">
+        <v>doch</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A13" s="6" t="str">
+        <v>jedes</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A14" t="str">
+        <v>Jahr</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A15" t="str">
+        <v>mehr.</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -620,18 +1955,142 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8BEA853-816D-4388-8CFC-05C4383DF123}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="6" width="11.9296875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
+      <c r="B3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" s="6" t="str" cm="1">
+        <f t="array" ref="A4:A13">_xlfn.TEXTSPLIT(A1, ," ")</f>
+        <v>Je</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" s="6" t="str">
+        <v>kleiner</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6" s="6" t="str">
+        <v>eine</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" s="6" t="str">
+        <v>Universität</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8" s="6" t="str">
+        <v>ist,</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9" s="6" t="str">
+        <v>desto</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10" s="6" t="str">
+        <v>besser</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A11" s="6" t="str">
+        <v>ist</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A12" s="6" t="str">
+        <v>die</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A13" s="6" t="str">
+        <v>Betreuung.</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WEIT-Deutsch-Alignierung/Alignierung.xlsx
+++ b/WEIT-Deutsch-Alignierung/Alignierung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2bdf333724b9168b/Code/SprachKompMess/WEIT-Deutsch-Alignierung/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="140" documentId="8_{50B36A9B-E3B6-4363-BE27-DBFDC7290816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B764F6C-D961-4881-85A2-8539B9F6593D}"/>
+  <xr:revisionPtr revIDLastSave="228" documentId="8_{50B36A9B-E3B6-4363-BE27-DBFDC7290816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF2954A0-F815-440D-82AF-4BC65E0DD8D2}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{75B75064-0063-4A04-B7A8-B873038A0220}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" activeTab="2" xr2:uid="{75B75064-0063-4A04-B7A8-B873038A0220}"/>
   </bookViews>
   <sheets>
     <sheet name="Item4" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="113">
   <si>
     <t>Die Häuser sind nicht sehr schön und viel zu teuer.</t>
   </si>
@@ -186,6 +186,225 @@
   </si>
   <si>
     <t>ist</t>
+  </si>
+  <si>
+    <t>Der junge katzen diese starn</t>
+  </si>
+  <si>
+    <t>die junger kassen s</t>
+  </si>
+  <si>
+    <t>ist traurig</t>
+  </si>
+  <si>
+    <t>der Junge, dessen Katze gestern starb, ist traurig</t>
+  </si>
+  <si>
+    <t>Die Junge, die Katz gestören sterbt, ist traurig.</t>
+  </si>
+  <si>
+    <t>Das restaurent sollte sehr guten essen haben</t>
+  </si>
+  <si>
+    <t>der restaurant gessen sehr gut</t>
+  </si>
+  <si>
+    <t>Das restaurant sollte sehr gutes Essen haben.</t>
+  </si>
+  <si>
+    <t>das Restuarant sollte sehr gutes Essen haben</t>
+  </si>
+  <si>
+    <t>Das Restaurant sollte sehr gut Essen haben.</t>
+  </si>
+  <si>
+    <t>Meine.. hat einen guten Humor er..</t>
+  </si>
+  <si>
+    <t>meine ehrfrauht hat</t>
+  </si>
+  <si>
+    <t>Meine Ehefrau hat eine sehr gute</t>
+  </si>
+  <si>
+    <t>meine Ehefrau hat einen sehr guten Sinn für Humor</t>
+  </si>
+  <si>
+    <t>Meinen Ehefrau hat eine sehr gute Sinn für Humor.</t>
+  </si>
+  <si>
+    <t>Den maisten spo</t>
+  </si>
+  <si>
+    <t>des meisten spar ich</t>
+  </si>
+  <si>
+    <t>Den meinsten Spaß</t>
+  </si>
+  <si>
+    <t>der meisten Spaß hatte ich, als wir in der Oper waren</t>
+  </si>
+  <si>
+    <t>Ich habe mesistens spaß, wenn ich bei Opa war.</t>
+  </si>
+  <si>
+    <t>ich wunsche mir das ist kosten</t>
+  </si>
+  <si>
+    <t>das ich mi der</t>
+  </si>
+  <si>
+    <t>Ich wünschte, dass ich</t>
+  </si>
+  <si>
+    <t>ich wünschte, dass ich den Preisen von Häusern leisten könnte</t>
+  </si>
+  <si>
+    <t>Ich hoffe, das ich die Wohnungen leisten könnte.</t>
+  </si>
+  <si>
+    <t>Die prufun war nich so schewer</t>
+  </si>
+  <si>
+    <t>der prefün</t>
+  </si>
+  <si>
+    <t>Die Prüfund war nicht so schwer</t>
+  </si>
+  <si>
+    <t>die Prüfung war nicht so schwer im Vergleich zu was du mir erzählt hast</t>
+  </si>
+  <si>
+    <t>Der Pr+ufung war nicht so schwer, im vergleich was du hast gesagt.</t>
+  </si>
+  <si>
+    <t>Die anzahl von leuten</t>
+  </si>
+  <si>
+    <t>die anzehul l</t>
+  </si>
+  <si>
+    <t>Die Anzahl von Leuten, die Zigaretten rauchen,</t>
+  </si>
+  <si>
+    <t>die Anzahl der jungen Leute, die Zigaretten rauchen, stiegt doch jedes Jahr mehr</t>
+  </si>
+  <si>
+    <t>Die Anyahl von Leuten, die Zigaretten rauche, ist hoher jeden Jahr.</t>
+  </si>
+  <si>
+    <t>Je kleiner hat</t>
+  </si>
+  <si>
+    <t>die kleinner der universitat ist der besster</t>
+  </si>
+  <si>
+    <t>Je kleiner eine Universität ist,</t>
+  </si>
+  <si>
+    <t>je kleiner eine Universität ist, desto besser ist die Betreuung</t>
+  </si>
+  <si>
+    <t>Die kleiner einer Universität ist, die besser ist die Betreuung.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Der</t>
+  </si>
+  <si>
+    <t>junge</t>
+  </si>
+  <si>
+    <t>katzen</t>
+  </si>
+  <si>
+    <t>diese</t>
+  </si>
+  <si>
+    <t>starn</t>
+  </si>
+  <si>
+    <t>junger</t>
+  </si>
+  <si>
+    <t>kassen</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>traurig</t>
+  </si>
+  <si>
+    <t>der</t>
+  </si>
+  <si>
+    <t>Junge</t>
+  </si>
+  <si>
+    <t>dessen</t>
+  </si>
+  <si>
+    <t>Katze</t>
+  </si>
+  <si>
+    <t>gestern</t>
+  </si>
+  <si>
+    <t>starb</t>
+  </si>
+  <si>
+    <t>Katz</t>
+  </si>
+  <si>
+    <t>gestören</t>
+  </si>
+  <si>
+    <t>sterbt</t>
+  </si>
+  <si>
+    <t>Das</t>
+  </si>
+  <si>
+    <t>restaurent</t>
+  </si>
+  <si>
+    <t>sollte</t>
+  </si>
+  <si>
+    <t>guten</t>
+  </si>
+  <si>
+    <t>essen</t>
+  </si>
+  <si>
+    <t>haben</t>
+  </si>
+  <si>
+    <t>restaurant</t>
+  </si>
+  <si>
+    <t>gut</t>
+  </si>
+  <si>
+    <t>gessen</t>
+  </si>
+  <si>
+    <t>gutes</t>
+  </si>
+  <si>
+    <t>Essen</t>
+  </si>
+  <si>
+    <t>das</t>
+  </si>
+  <si>
+    <t>Restuarant</t>
+  </si>
+  <si>
+    <t>Restaurant</t>
   </si>
 </sst>
 </file>
@@ -224,18 +443,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.89999084444715716"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -298,20 +511,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -648,8 +859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADBF60F1-5743-407F-B6DC-F59E2D80B2FE}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -663,19 +874,19 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="3" t="s">
@@ -683,181 +894,180 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4" s="6" t="str" cm="1">
+      <c r="A4" s="5" t="str" cm="1">
         <f t="array" ref="A4:A13">_xlfn.TEXTSPLIT(A1, ," ")</f>
         <v>Die</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5" s="6" t="str">
+      <c r="A5" s="5" t="str">
         <v>Häuser</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6" s="6" t="str">
+      <c r="A6" s="5" t="str">
         <v>sind</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7" s="6" t="str">
+      <c r="A7" s="5" t="str">
         <v>nicht</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8" s="6" t="str">
+      <c r="A8" s="5" t="str">
         <v>sehr</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6" t="s">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9" s="6" t="str">
+      <c r="A9" s="5" t="str">
         <v>schön</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6" t="s">
+      <c r="C9" s="5"/>
+      <c r="D9" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A10" s="6" t="str">
+      <c r="A10" s="5" t="str">
         <v>und</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6" t="s">
+      <c r="C10" s="5"/>
+      <c r="D10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A11" s="6" t="str">
+      <c r="A11" s="5" t="str">
         <v>viel</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6" t="s">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="7" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A12" s="6" t="str">
+      <c r="A12" s="5" t="str">
         <v>zu</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6" t="s">
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A13" s="6" t="str">
+      <c r="A13" s="5" t="str">
         <v>teuer.</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6" t="s">
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" t="s">
         <v>28</v>
       </c>
     </row>
@@ -873,7 +1083,7 @@
       <c r="A18">
         <v>1</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" t="s">
         <v>15</v>
       </c>
     </row>
@@ -881,7 +1091,7 @@
       <c r="A19">
         <v>2</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" t="s">
         <v>16</v>
       </c>
     </row>
@@ -889,7 +1099,7 @@
       <c r="A20">
         <v>3</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" t="s">
         <v>17</v>
       </c>
     </row>
@@ -897,7 +1107,7 @@
       <c r="A21">
         <v>4</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" t="s">
         <v>18</v>
       </c>
     </row>
@@ -905,7 +1115,7 @@
       <c r="A22">
         <v>5</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" t="s">
         <v>19</v>
       </c>
     </row>
@@ -919,10 +1129,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{877ABC3B-6619-488B-9984-86AC8372237F}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -936,19 +1146,19 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="3" t="s">
@@ -956,85 +1166,191 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4" s="6" t="str" cm="1">
+      <c r="A4" s="5" t="str" cm="1">
         <f t="array" ref="A4:A11">_xlfn.TEXTSPLIT(A1, ," ")</f>
         <v>Der</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="4"/>
+      <c r="B4" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5" s="6" t="str">
+      <c r="A5" s="5" t="str">
         <v>Junge,</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="4"/>
+      <c r="B5" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F5" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6" s="6" t="str">
+      <c r="A6" s="5" t="str">
         <v>dessen</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="4"/>
+      <c r="B6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F6" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7" s="6" t="str">
+      <c r="A7" s="5" t="str">
         <v>Katze</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="4"/>
+      <c r="B7" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F7" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8" s="6" t="str">
+      <c r="A8" s="5" t="str">
         <v>gestern</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="4"/>
+      <c r="B8" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F8" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9" s="6" t="str">
+      <c r="A9" s="5" t="str">
         <v>starb,</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="4"/>
+      <c r="B9" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F9" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A10" s="6" t="str">
+      <c r="A10" s="5" t="str">
         <v>ist</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="4"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A11" s="6" t="str">
+      <c r="A11" s="5" t="str">
         <v>traurig.</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="4"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>44</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1043,10 +1359,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD49F9E2-F02F-4742-BB5B-151502069BA8}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1060,19 +1376,19 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="3" t="s">
@@ -1080,75 +1396,189 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4" s="6" t="str" cm="1">
+      <c r="A4" s="5" t="str" cm="1">
         <f t="array" ref="A4:A10">_xlfn.TEXTSPLIT(A1, ," ")</f>
         <v>Das</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="4"/>
+      <c r="B4" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5" s="6" t="str">
+      <c r="A5" s="5" t="str">
         <v>Restaurant</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="4"/>
+      <c r="B5" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F5" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6" s="6" t="str">
+      <c r="A6" s="5" t="str">
         <v>sollte</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="4"/>
+      <c r="B6" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7" s="6" t="str">
+      <c r="A7" s="5" t="str">
         <v>sehr</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="4"/>
+      <c r="B7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8" s="6" t="str">
+      <c r="A8" s="5" t="str">
         <v>gutes</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="4"/>
+      <c r="B8" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9" s="6" t="str">
+      <c r="A9" s="5" t="str">
         <v>Essen</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="4"/>
+      <c r="B9" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A10" s="6" t="str">
+      <c r="A10" s="5" t="str">
         <v>haben.</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="4"/>
+      <c r="B10" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>49</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1157,10 +1587,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3615977F-F844-4157-812F-A1BAF0B42B87}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B17" sqref="B17:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1174,19 +1604,19 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="3" t="s">
@@ -1194,95 +1624,134 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4" s="6" t="str" cm="1">
+      <c r="A4" s="5" t="str" cm="1">
         <f t="array" ref="A4:A12">_xlfn.TEXTSPLIT(A1, ," ")</f>
         <v>Meine</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5" s="6" t="str">
+      <c r="A5" s="5" t="str">
         <v>Ehefrau</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6" s="6" t="str">
+      <c r="A6" s="5" t="str">
         <v>hat</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7" s="6" t="str">
+      <c r="A7" s="5" t="str">
         <v>einen</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8" s="6" t="str">
+      <c r="A8" s="5" t="str">
         <v>sehr</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9" s="6" t="str">
+      <c r="A9" s="5" t="str">
         <v>guten</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A10" s="6" t="str">
+      <c r="A10" s="5" t="str">
         <v>Sinn</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="4"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A11" s="6" t="str">
+      <c r="A11" s="5" t="str">
         <v>für</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="4"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A12" s="6" t="str">
+      <c r="A12" s="5" t="str">
         <v>Humor.</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>54</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1291,10 +1760,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E50BC9D-F304-4CAE-B819-AF69CE9588B8}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="B18" sqref="B18:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1308,19 +1777,19 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="3" t="s">
@@ -1328,114 +1797,152 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4" s="6" t="str" cm="1">
+      <c r="A4" s="5" t="str" cm="1">
         <f t="array" ref="A4:A14">_xlfn.TEXTSPLIT(A1, ," ")</f>
         <v>Den</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5" s="6" t="str">
+      <c r="A5" s="5" t="str">
         <v>meisten</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6" s="6" t="str">
+      <c r="A6" s="5" t="str">
         <v>Spaß</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7" s="6" t="str">
+      <c r="A7" s="5" t="str">
         <v>hatte</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8" s="6" t="str">
+      <c r="A8" s="5" t="str">
         <v>ich</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9" s="6" t="str">
+      <c r="A9" s="5" t="str">
         <v>als</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A10" s="6" t="str">
+      <c r="A10" s="5" t="str">
         <v>wir</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="4"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A11" s="6" t="str">
+      <c r="A11" s="5" t="str">
         <v>in</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="4"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A12" s="6" t="str">
+      <c r="A12" s="5" t="str">
         <v>der</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A13" s="6" t="str">
+      <c r="A13" s="5" t="str">
         <v>Oper</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="4"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" t="str">
         <v>waren.</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>59</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1444,10 +1951,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE12B06E-22C4-4E4B-A82F-FCDAFC17AC0F}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:F14"/>
+      <selection activeCell="B19" sqref="B19:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1461,19 +1968,19 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="3" t="s">
@@ -1481,114 +1988,152 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4" s="6" t="str" cm="1">
+      <c r="A4" s="5" t="str" cm="1">
         <f t="array" ref="A4:A14">_xlfn.TEXTSPLIT(A1, ," ")</f>
         <v>Ich</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5" s="6" t="str">
+      <c r="A5" s="5" t="str">
         <v>wünschte,</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6" s="6" t="str">
+      <c r="A6" s="5" t="str">
         <v>dass</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7" s="6" t="str">
+      <c r="A7" s="5" t="str">
         <v>ich</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8" s="6" t="str">
+      <c r="A8" s="5" t="str">
         <v>mir</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9" s="6" t="str">
+      <c r="A9" s="5" t="str">
         <v>die</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A10" s="6" t="str">
+      <c r="A10" s="5" t="str">
         <v>Kosten</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="4"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A11" s="6" t="str">
+      <c r="A11" s="5" t="str">
         <v>von</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="4"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A12" s="6" t="str">
+      <c r="A12" s="5" t="str">
         <v>Häusern</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A13" s="6" t="str">
+      <c r="A13" s="5" t="str">
         <v>leisten</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="4"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" t="str">
         <v>könnte.</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
+        <v>64</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1597,10 +2142,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DFE6AC8-5237-4BB1-9EAE-074F3BC87A56}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1614,19 +2159,19 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="3" t="s">
@@ -1634,155 +2179,203 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4" s="6" t="str" cm="1">
+      <c r="A4" s="5" t="str" cm="1">
         <f t="array" ref="A4:A18">_xlfn.TEXTSPLIT(A1, ," ")</f>
         <v>Die</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5" s="6" t="str">
+      <c r="A5" s="5" t="str">
         <v>Prüfung</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6" s="6" t="str">
+      <c r="A6" s="5" t="str">
         <v>war</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7" s="6" t="str">
+      <c r="A7" s="5" t="str">
         <v>nicht</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8" s="6" t="str">
+      <c r="A8" s="5" t="str">
         <v>so</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9" s="6" t="str">
+      <c r="A9" s="5" t="str">
         <v>schwer</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A10" s="6" t="str">
+      <c r="A10" s="5" t="str">
         <v>im</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A11" s="6" t="str">
+      <c r="A11" s="5" t="str">
         <v>Vergleich</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A12" s="6" t="str">
+      <c r="A12" s="5" t="str">
         <v>zu</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A13" s="6" t="str">
+      <c r="A13" s="5" t="str">
         <v>dem</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" t="str">
         <v>was</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" t="str">
         <v>Du</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" t="str">
         <v>mir</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" t="str">
         <v>erzählt</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" t="str">
         <v>hast.</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>4</v>
+      </c>
+      <c r="B25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>5</v>
+      </c>
+      <c r="B26" t="s">
+        <v>69</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1791,10 +2384,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59A623DE-5065-477E-BD1D-0896E3FB4667}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20:B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1808,19 +2401,19 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="3" t="s">
@@ -1828,125 +2421,173 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4" s="6" t="str" cm="1">
+      <c r="A4" s="5" t="str" cm="1">
         <f t="array" ref="A4:A15">_xlfn.TEXTSPLIT(A1, ," ")</f>
         <v>Die</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5" s="6" t="str">
+      <c r="A5" s="5" t="str">
         <v>Anzahl</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6" s="6" t="str">
+      <c r="A6" s="5" t="str">
         <v>von</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7" s="6" t="str">
+      <c r="A7" s="5" t="str">
         <v>Leuten,</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8" s="6" t="str">
+      <c r="A8" s="5" t="str">
         <v>die</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9" s="6" t="str">
+      <c r="A9" s="5" t="str">
         <v>Zigaretten</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A10" s="6" t="str">
+      <c r="A10" s="5" t="str">
         <v>rauchen,</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A11" s="6" t="str">
+      <c r="A11" s="5" t="str">
         <v>steigt</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A12" s="6" t="str">
+      <c r="A12" s="5" t="str">
         <v>doch</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A13" s="6" t="str">
+      <c r="A13" s="5" t="str">
         <v>jedes</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" t="str">
         <v>Jahr</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" t="str">
         <v>mehr.</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>4</v>
+      </c>
+      <c r="B23" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>5</v>
+      </c>
+      <c r="B24" t="s">
+        <v>74</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1955,10 +2596,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8BEA853-816D-4388-8CFC-05C4383DF123}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1972,19 +2613,19 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="3" t="s">
@@ -1992,105 +2633,158 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4" s="6" t="str" cm="1">
+      <c r="A4" s="5" t="str" cm="1">
         <f t="array" ref="A4:A13">_xlfn.TEXTSPLIT(A1, ," ")</f>
         <v>Je</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5" s="6" t="str">
+      <c r="A5" s="5" t="str">
         <v>kleiner</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6" s="6" t="str">
+      <c r="A6" s="5" t="str">
         <v>eine</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7" s="6" t="str">
+      <c r="A7" s="5" t="str">
         <v>Universität</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8" s="6" t="str">
+      <c r="A8" s="5" t="str">
         <v>ist,</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9" s="6" t="str">
+      <c r="A9" s="5" t="str">
         <v>desto</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A10" s="6" t="str">
+      <c r="A10" s="5" t="str">
         <v>besser</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A11" s="6" t="str">
+      <c r="A11" s="5" t="str">
         <v>ist</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A12" s="6" t="str">
+      <c r="A12" s="5" t="str">
         <v>die</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A13" s="6" t="str">
+      <c r="A13" s="5" t="str">
         <v>Betreuung.</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>79</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WEIT-Deutsch-Alignierung/Alignierung.xlsx
+++ b/WEIT-Deutsch-Alignierung/Alignierung.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2bdf333724b9168b/Code/SprachKompMess/WEIT-Deutsch-Alignierung/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\Personal\RUB2022\VAMoS\Sprachkompetenzmessung\WEIT-Deutsch-Alignierung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="228" documentId="8_{50B36A9B-E3B6-4363-BE27-DBFDC7290816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF2954A0-F815-440D-82AF-4BC65E0DD8D2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0846CE38-6753-4F61-8841-A367B231E133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" activeTab="2" xr2:uid="{75B75064-0063-4A04-B7A8-B873038A0220}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{75B75064-0063-4A04-B7A8-B873038A0220}"/>
   </bookViews>
   <sheets>
     <sheet name="Item4" sheetId="1" r:id="rId1"/>
@@ -43,6 +43,132 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={A9926970-EC14-4473-9DBA-534A6EBD8A2E}</author>
+    <author>tc={6A34977C-8074-41EF-A180-2725FA7B9EB8}</author>
+  </authors>
+  <commentList>
+    <comment ref="F11" authorId="0" shapeId="0" xr:uid="{A9926970-EC14-4473-9DBA-534A6EBD8A2E}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Is this the right way to handle replaced words?</t>
+      </text>
+    </comment>
+    <comment ref="C14" authorId="1" shapeId="0" xr:uid="{6A34977C-8074-41EF-A180-2725FA7B9EB8}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Extra words at sentence end</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={D6BA1719-3DE3-4E04-B5E2-7977944665EB}</author>
+  </authors>
+  <commentList>
+    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{D6BA1719-3DE3-4E04-B5E2-7977944665EB}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Extra words at end again</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={36603010-D106-4A79-98A7-388494AECCC5}</author>
+  </authors>
+  <commentList>
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{36603010-D106-4A79-98A7-388494AECCC5}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Extra words at sentence beginning</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={43223983-D467-4690-959C-54E8ED7D5E48}</author>
+  </authors>
+  <commentList>
+    <comment ref="B9" authorId="0" shapeId="0" xr:uid="{43223983-D467-4690-959C-54E8ED7D5E48}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    How do we handle extra (inserted) words in the middle of a sentence?</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={468F00AA-B25C-45E6-AF61-4682BA04A930}</author>
+  </authors>
+  <commentList>
+    <comment ref="F16" authorId="0" shapeId="0" xr:uid="{468F00AA-B25C-45E6-AF61-4682BA04A930}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    What do we do when the words in the response themselves are misaligned (wrong order)?</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={6C59E3A0-4481-4FE6-AC47-2BE68FBE4AEB}</author>
+    <author>tc={6EDAF603-A5B9-4D59-8131-FED4AF769623}</author>
+  </authors>
+  <commentList>
+    <comment ref="E6" authorId="0" shapeId="0" xr:uid="{6C59E3A0-4481-4FE6-AC47-2BE68FBE4AEB}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Again the question with inserted words in the middle of a sentence</t>
+      </text>
+    </comment>
+    <comment ref="F11" authorId="1" shapeId="0" xr:uid="{6EDAF603-A5B9-4D59-8131-FED4AF769623}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    How do we handle synonyms? Is this even a synonym?</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
 <metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
@@ -66,7 +192,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="211">
   <si>
     <t>Die Häuser sind nicht sehr schön und viel zu teuer.</t>
   </si>
@@ -405,13 +531,307 @@
   </si>
   <si>
     <t>Restaurant</t>
+  </si>
+  <si>
+    <t>Meine</t>
+  </si>
+  <si>
+    <t>hat</t>
+  </si>
+  <si>
+    <t>einen</t>
+  </si>
+  <si>
+    <t>Humor</t>
+  </si>
+  <si>
+    <t>er</t>
+  </si>
+  <si>
+    <t>Extra</t>
+  </si>
+  <si>
+    <t>meine</t>
+  </si>
+  <si>
+    <t>ehrfrauht</t>
+  </si>
+  <si>
+    <t>Ehefrau</t>
+  </si>
+  <si>
+    <t>eine</t>
+  </si>
+  <si>
+    <t>gute</t>
+  </si>
+  <si>
+    <t>Sinn</t>
+  </si>
+  <si>
+    <t>für</t>
+  </si>
+  <si>
+    <t>Meinen</t>
+  </si>
+  <si>
+    <t>Den</t>
+  </si>
+  <si>
+    <t>maisten</t>
+  </si>
+  <si>
+    <t>spo</t>
+  </si>
+  <si>
+    <t>des</t>
+  </si>
+  <si>
+    <t>meisten</t>
+  </si>
+  <si>
+    <t>spar</t>
+  </si>
+  <si>
+    <t>ich</t>
+  </si>
+  <si>
+    <t>meinsten</t>
+  </si>
+  <si>
+    <t>Spaß</t>
+  </si>
+  <si>
+    <t>hatte</t>
+  </si>
+  <si>
+    <t>als</t>
+  </si>
+  <si>
+    <t>wir</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>Oper</t>
+  </si>
+  <si>
+    <t>waren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">der </t>
+  </si>
+  <si>
+    <t>Ich</t>
+  </si>
+  <si>
+    <t>mesistens</t>
+  </si>
+  <si>
+    <t>spaß</t>
+  </si>
+  <si>
+    <t>Ich habe</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>Opa</t>
+  </si>
+  <si>
+    <t>bei</t>
+  </si>
+  <si>
+    <t>wenn</t>
+  </si>
+  <si>
+    <t>wunsche</t>
+  </si>
+  <si>
+    <t>mir</t>
+  </si>
+  <si>
+    <t>kosten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">das ist </t>
+  </si>
+  <si>
+    <t>mi</t>
+  </si>
+  <si>
+    <t>wünschte</t>
+  </si>
+  <si>
+    <t>dass</t>
+  </si>
+  <si>
+    <t>den</t>
+  </si>
+  <si>
+    <t>Preisen</t>
+  </si>
+  <si>
+    <t>von</t>
+  </si>
+  <si>
+    <t>Häusern</t>
+  </si>
+  <si>
+    <t>leisten</t>
+  </si>
+  <si>
+    <t>könnte</t>
+  </si>
+  <si>
+    <t>hoffe</t>
+  </si>
+  <si>
+    <t>Wohnungen</t>
+  </si>
+  <si>
+    <t>prufun</t>
+  </si>
+  <si>
+    <t>so</t>
+  </si>
+  <si>
+    <t>schewer</t>
+  </si>
+  <si>
+    <t>prefün</t>
+  </si>
+  <si>
+    <t>Prüfund</t>
+  </si>
+  <si>
+    <t>schwer</t>
+  </si>
+  <si>
+    <t>Prüfung</t>
+  </si>
+  <si>
+    <t>im</t>
+  </si>
+  <si>
+    <t>Vergleich</t>
+  </si>
+  <si>
+    <t>was</t>
+  </si>
+  <si>
+    <t>du</t>
+  </si>
+  <si>
+    <t>erzählt</t>
+  </si>
+  <si>
+    <t>hast</t>
+  </si>
+  <si>
+    <t>Pr+ufung</t>
+  </si>
+  <si>
+    <t>vergleich</t>
+  </si>
+  <si>
+    <t>gesagt</t>
+  </si>
+  <si>
+    <t>anzahl</t>
+  </si>
+  <si>
+    <t>leuten</t>
+  </si>
+  <si>
+    <t>anzehul</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>Anzahl</t>
+  </si>
+  <si>
+    <t>Leuten</t>
+  </si>
+  <si>
+    <t>Zigaretten</t>
+  </si>
+  <si>
+    <t>rauchen</t>
+  </si>
+  <si>
+    <t>der jungen</t>
+  </si>
+  <si>
+    <t>stiegt</t>
+  </si>
+  <si>
+    <t>doch</t>
+  </si>
+  <si>
+    <t>jedes</t>
+  </si>
+  <si>
+    <t>Jahr</t>
+  </si>
+  <si>
+    <t>mehr</t>
+  </si>
+  <si>
+    <t>Anyahl</t>
+  </si>
+  <si>
+    <t>rauche</t>
+  </si>
+  <si>
+    <t>ist hoher</t>
+  </si>
+  <si>
+    <t>jeden</t>
+  </si>
+  <si>
+    <t>Je</t>
+  </si>
+  <si>
+    <t>kleiner</t>
+  </si>
+  <si>
+    <t>kleinner</t>
+  </si>
+  <si>
+    <t>universitat</t>
+  </si>
+  <si>
+    <t>besster</t>
+  </si>
+  <si>
+    <t>Universität</t>
+  </si>
+  <si>
+    <t>je</t>
+  </si>
+  <si>
+    <t>desto</t>
+  </si>
+  <si>
+    <t>besser</t>
+  </si>
+  <si>
+    <t>Betreuung</t>
+  </si>
+  <si>
+    <t>einer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -442,6 +862,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -451,7 +877,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -507,11 +933,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -523,6 +962,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -538,6 +980,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Mihail Chifligarov" id="{53732A36-0EFD-4824-AE4B-25203566D6EB}" userId="2bdf333724b9168b" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -855,25 +1303,79 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="F11" dT="2024-06-11T19:02:36.98" personId="{53732A36-0EFD-4824-AE4B-25203566D6EB}" id="{A9926970-EC14-4473-9DBA-534A6EBD8A2E}">
+    <text>Is this the right way to handle replaced words?</text>
+  </threadedComment>
+  <threadedComment ref="C14" dT="2024-06-11T19:11:53.45" personId="{53732A36-0EFD-4824-AE4B-25203566D6EB}" id="{6A34977C-8074-41EF-A180-2725FA7B9EB8}">
+    <text>Extra words at sentence end</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="B13" dT="2024-06-11T19:12:04.69" personId="{53732A36-0EFD-4824-AE4B-25203566D6EB}" id="{D6BA1719-3DE3-4E04-B5E2-7977944665EB}">
+    <text>Extra words at end again</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="F4" dT="2024-06-11T19:11:37.67" personId="{53732A36-0EFD-4824-AE4B-25203566D6EB}" id="{36603010-D106-4A79-98A7-388494AECCC5}">
+    <text>Extra words at sentence beginning</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment4.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="B9" dT="2024-06-11T19:04:10.57" personId="{53732A36-0EFD-4824-AE4B-25203566D6EB}" id="{43223983-D467-4690-959C-54E8ED7D5E48}">
+    <text>How do we handle extra (inserted) words in the middle of a sentence?</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment5.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="F16" dT="2024-06-11T19:01:14.75" personId="{53732A36-0EFD-4824-AE4B-25203566D6EB}" id="{468F00AA-B25C-45E6-AF61-4682BA04A930}">
+    <text>What do we do when the words in the response themselves are misaligned (wrong order)?</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment6.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="E6" dT="2024-06-11T19:06:27.65" personId="{53732A36-0EFD-4824-AE4B-25203566D6EB}" id="{6C59E3A0-4481-4FE6-AC47-2BE68FBE4AEB}">
+    <text>Again the question with inserted words in the middle of a sentence</text>
+  </threadedComment>
+  <threadedComment ref="F11" dT="2024-06-11T19:07:42.04" personId="{53732A36-0EFD-4824-AE4B-25203566D6EB}" id="{6EDAF603-A5B9-4D59-8131-FED4AF769623}">
+    <text>How do we handle synonyms? Is this even a synonym?</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADBF60F1-5743-407F-B6DC-F59E2D80B2FE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADBF60F1-5743-407F-B6DC-F59E2D80B2FE}">
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:B22"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="11.3984375" customWidth="1"/>
+    <col min="1" max="6" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -893,7 +1395,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="str" cm="1">
         <f t="array" ref="A4:A13">_xlfn.TEXTSPLIT(A1, ," ")</f>
         <v>Die</v>
@@ -914,7 +1416,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="str">
         <v>Häuser</v>
       </c>
@@ -934,7 +1436,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="str">
         <v>sind</v>
       </c>
@@ -954,16 +1456,14 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="str">
         <v>nicht</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="C7" s="6"/>
       <c r="D7" s="5" t="s">
         <v>34</v>
       </c>
@@ -974,7 +1474,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="str">
         <v>sehr</v>
       </c>
@@ -992,7 +1492,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="str">
         <v>schön</v>
       </c>
@@ -1010,7 +1510,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="str">
         <v>und</v>
       </c>
@@ -1028,7 +1528,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="str">
         <v>viel</v>
       </c>
@@ -1044,7 +1544,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="str">
         <v>zu</v>
       </c>
@@ -1054,8 +1554,11 @@
       <c r="E12" s="5" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="str">
         <v>teuer.</v>
       </c>
@@ -1071,7 +1574,19 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
@@ -1079,7 +1594,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1087,7 +1602,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2</v>
       </c>
@@ -1095,7 +1610,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>3</v>
       </c>
@@ -1103,7 +1618,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>4</v>
       </c>
@@ -1111,7 +1626,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>5</v>
       </c>
@@ -1124,6 +1639,7 @@
     <mergeCell ref="B11:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1132,20 +1648,20 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="11.265625" customWidth="1"/>
+    <col min="1" max="6" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -1165,7 +1681,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="str" cm="1">
         <f t="array" ref="A4:A11">_xlfn.TEXTSPLIT(A1, ," ")</f>
         <v>Der</v>
@@ -1184,7 +1700,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="str">
         <v>Junge,</v>
       </c>
@@ -1202,7 +1718,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="str">
         <v>dessen</v>
       </c>
@@ -1220,7 +1736,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="str">
         <v>Katze</v>
       </c>
@@ -1238,7 +1754,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="str">
         <v>gestern</v>
       </c>
@@ -1256,7 +1772,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="str">
         <v>starb,</v>
       </c>
@@ -1272,7 +1788,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="str">
         <v>ist</v>
       </c>
@@ -1288,7 +1804,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="str">
         <v>traurig.</v>
       </c>
@@ -1304,7 +1820,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>20</v>
       </c>
@@ -1312,7 +1828,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1320,7 +1836,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2</v>
       </c>
@@ -1328,7 +1844,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>3</v>
       </c>
@@ -1336,7 +1852,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>4</v>
       </c>
@@ -1344,7 +1860,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>5</v>
       </c>
@@ -1361,21 +1877,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD49F9E2-F02F-4742-BB5B-151502069BA8}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="10.9296875" customWidth="1"/>
+    <col min="1" max="6" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -1395,7 +1911,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="str" cm="1">
         <f t="array" ref="A4:A10">_xlfn.TEXTSPLIT(A1, ," ")</f>
         <v>Das</v>
@@ -1416,7 +1932,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="str">
         <v>Restaurant</v>
       </c>
@@ -1436,7 +1952,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="str">
         <v>sollte</v>
       </c>
@@ -1456,7 +1972,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="str">
         <v>sehr</v>
       </c>
@@ -1476,7 +1992,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="str">
         <v>gutes</v>
       </c>
@@ -1496,7 +2012,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="str">
         <v>Essen</v>
       </c>
@@ -1514,7 +2030,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="str">
         <v>haben.</v>
       </c>
@@ -1532,7 +2048,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
@@ -1540,7 +2056,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -1548,7 +2064,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2</v>
       </c>
@@ -1556,7 +2072,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>3</v>
       </c>
@@ -1564,7 +2080,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>4</v>
       </c>
@@ -1572,7 +2088,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>5</v>
       </c>
@@ -1586,24 +2102,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3615977F-F844-4157-812F-A1BAF0B42B87}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3615977F-F844-4157-812F-A1BAF0B42B87}">
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:B21"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="11.33203125" customWidth="1"/>
+    <col min="1" max="6" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -1623,89 +2139,182 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="str" cm="1">
         <f t="array" ref="A4:A12">_xlfn.TEXTSPLIT(A1, ," ")</f>
         <v>Meine</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B4" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="str">
         <v>Ehefrau</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="F5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="str">
         <v>hat</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B6" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="str">
         <v>einen</v>
       </c>
-      <c r="B7" s="5"/>
+      <c r="B7" s="5" t="s">
+        <v>115</v>
+      </c>
       <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="D7" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="str">
         <v>sehr</v>
       </c>
-      <c r="B8" s="5"/>
+      <c r="B8" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="D8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="str">
         <v>guten</v>
       </c>
-      <c r="B9" s="5"/>
+      <c r="B9" s="5" t="s">
+        <v>102</v>
+      </c>
       <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="D9" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="str">
         <v>Sinn</v>
       </c>
-      <c r="B10" s="5"/>
+      <c r="B10" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E10" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="str">
         <v>für</v>
       </c>
-      <c r="B11" s="5"/>
+      <c r="B11" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E11" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="str">
         <v>Humor.</v>
       </c>
-      <c r="B12" s="5"/>
+      <c r="B12" s="5" t="s">
+        <v>116</v>
+      </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E12" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
@@ -1713,7 +2322,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -1721,7 +2330,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2</v>
       </c>
@@ -1729,7 +2338,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>3</v>
       </c>
@@ -1737,7 +2346,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>4</v>
       </c>
@@ -1745,7 +2354,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>5</v>
       </c>
@@ -1755,28 +2364,30 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E50BC9D-F304-4CAE-B819-AF69CE9588B8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E50BC9D-F304-4CAE-B819-AF69CE9588B8}">
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:B22"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="11.19921875" customWidth="1"/>
+    <col min="1" max="6" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -1796,107 +2407,184 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="str" cm="1">
         <f t="array" ref="A4:A14">_xlfn.TEXTSPLIT(A1, ," ")</f>
         <v>Den</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B4" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="F4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="str">
         <v>meisten</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B5" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="F5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="str">
         <v>Spaß</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B6" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="str">
         <v>hatte</v>
       </c>
       <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
+      <c r="C7" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E7" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="str">
         <v>ich</v>
       </c>
       <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
+      <c r="C8" s="5" t="s">
+        <v>133</v>
+      </c>
       <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E8" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="str">
         <v>als</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E9" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="F9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="str">
         <v>wir</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E10" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="str">
         <v>in</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E11" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F11" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="str">
         <v>der</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E12" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="str">
         <v>Oper</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E13" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="F13" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <v>waren.</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="E14" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="F14" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
@@ -1904,7 +2592,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1912,7 +2600,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2</v>
       </c>
@@ -1920,7 +2608,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>3</v>
       </c>
@@ -1928,7 +2616,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>4</v>
       </c>
@@ -1936,7 +2624,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>5</v>
       </c>
@@ -1946,28 +2634,29 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE12B06E-22C4-4E4B-A82F-FCDAFC17AC0F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE12B06E-22C4-4E4B-A82F-FCDAFC17AC0F}">
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:B23"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="10.9296875" customWidth="1"/>
+    <col min="1" max="6" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -1987,107 +2676,196 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="str" cm="1">
         <f t="array" ref="A4:A14">_xlfn.TEXTSPLIT(A1, ," ")</f>
         <v>Ich</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B4" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="str">
         <v>wünschte,</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B5" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="F5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="str">
         <v>dass</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="F6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="str">
         <v>ich</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="str">
         <v>mir</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
+      <c r="B8" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>155</v>
+      </c>
       <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="str">
         <v>die</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
+      <c r="B9" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E9" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="F9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="str">
         <v>Kosten</v>
       </c>
-      <c r="B10" s="5"/>
+      <c r="B10" s="5" t="s">
+        <v>153</v>
+      </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E10" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="F10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="str">
         <v>von</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E11" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="F11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="str">
         <v>Häusern</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E12" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="F12" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="str">
         <v>leisten</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E13" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="F13" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <v>könnte.</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="E14" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>20</v>
       </c>
@@ -2095,7 +2873,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -2103,7 +2881,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2</v>
       </c>
@@ -2111,7 +2889,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>3</v>
       </c>
@@ -2119,7 +2897,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>4</v>
       </c>
@@ -2127,7 +2905,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>5</v>
       </c>
@@ -2137,28 +2915,29 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DFE6AC8-5237-4BB1-9EAE-074F3BC87A56}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DFE6AC8-5237-4BB1-9EAE-074F3BC87A56}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22:B26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="11.1328125" customWidth="1"/>
+    <col min="1" max="6" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -2178,158 +2957,244 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="str" cm="1">
         <f t="array" ref="A4:A18">_xlfn.TEXTSPLIT(A1, ," ")</f>
         <v>Die</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="str">
         <v>Prüfung</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B5" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="str">
         <v>war</v>
       </c>
-      <c r="B6" s="5"/>
+      <c r="B6" s="5" t="s">
+        <v>147</v>
+      </c>
       <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="D6" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="str">
         <v>nicht</v>
       </c>
-      <c r="B7" s="5"/>
+      <c r="B7" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="D7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="str">
         <v>so</v>
       </c>
-      <c r="B8" s="5"/>
+      <c r="B8" s="5" t="s">
+        <v>167</v>
+      </c>
       <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="D8" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="str">
         <v>schwer</v>
       </c>
-      <c r="B9" s="5"/>
+      <c r="B9" s="5" t="s">
+        <v>168</v>
+      </c>
       <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="D9" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="str">
         <v>im</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E10" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="str">
         <v>Vergleich</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E11" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="str">
         <v>zu</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="str">
         <v>dem</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <v>was</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E14" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <v>Du</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E15" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <v>mir</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E16" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <v>erzählt</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E17" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <v>hast.</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
+      <c r="E18" s="5" t="s">
+        <v>178</v>
+      </c>
       <c r="F18" s="5"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -2337,7 +3202,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -2345,7 +3210,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2</v>
       </c>
@@ -2353,7 +3218,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>3</v>
       </c>
@@ -2361,7 +3226,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>4</v>
       </c>
@@ -2369,7 +3234,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>5</v>
       </c>
@@ -2379,28 +3244,29 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59A623DE-5065-477E-BD1D-0896E3FB4667}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59A623DE-5065-477E-BD1D-0896E3FB4667}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:B24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="11.19921875" customWidth="1"/>
+    <col min="1" max="6" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -2420,128 +3286,202 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="str" cm="1">
         <f t="array" ref="A4:A15">_xlfn.TEXTSPLIT(A1, ," ")</f>
         <v>Die</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="str">
         <v>Anzahl</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B5" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="str">
         <v>von</v>
       </c>
-      <c r="B6" s="5"/>
+      <c r="B6" s="5" t="s">
+        <v>160</v>
+      </c>
       <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="D6" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="str">
         <v>Leuten,</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B7" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="str">
         <v>die</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="D8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="str">
         <v>Zigaretten</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="D9" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="str">
         <v>rauchen,</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="D10" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="str">
         <v>steigt</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E11" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="str">
         <v>doch</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E12" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="str">
         <v>jedes</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E13" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <v>Jahr</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E14" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <v>mehr.</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+      <c r="E15" s="5" t="s">
+        <v>195</v>
+      </c>
       <c r="F15" s="5"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
@@ -2549,7 +3489,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -2557,7 +3497,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>
@@ -2565,7 +3505,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>3</v>
       </c>
@@ -2573,7 +3513,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>4</v>
       </c>
@@ -2581,7 +3521,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>5</v>
       </c>
@@ -2591,6 +3531,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2598,21 +3539,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8BEA853-816D-4388-8CFC-05C4383DF123}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="11.9296875" customWidth="1"/>
+    <col min="1" max="6" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -2632,113 +3573,187 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="str" cm="1">
         <f t="array" ref="A4:A13">_xlfn.TEXTSPLIT(A1, ," ")</f>
         <v>Je</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B4" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="str">
         <v>kleiner</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B5" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="str">
         <v>eine</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="str">
         <v>Universität</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="str">
         <v>ist,</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B8" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="str">
         <v>desto</v>
       </c>
       <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
+      <c r="C9" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E9" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="str">
         <v>besser</v>
       </c>
       <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
+      <c r="C10" s="5" t="s">
+        <v>204</v>
+      </c>
       <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E10" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="str">
         <v>ist</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="str">
         <v>die</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="str">
         <v>Betreuung.</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E13" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F16" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
@@ -2746,7 +3761,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -2754,7 +3769,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2</v>
       </c>
@@ -2762,7 +3777,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>3</v>
       </c>
@@ -2770,7 +3785,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>4</v>
       </c>
@@ -2778,7 +3793,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>5</v>
       </c>

--- a/WEIT-Deutsch-Alignierung/Alignierung.xlsx
+++ b/WEIT-Deutsch-Alignierung/Alignierung.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\Personal\RUB2022\VAMoS\Sprachkompetenzmessung\WEIT-Deutsch-Alignierung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0846CE38-6753-4F61-8841-A367B231E133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83440C9E-1607-4A38-8F6C-DF1161E81C70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{75B75064-0063-4A04-B7A8-B873038A0220}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" firstSheet="1" activeTab="2" xr2:uid="{75B75064-0063-4A04-B7A8-B873038A0220}"/>
   </bookViews>
   <sheets>
     <sheet name="Item4" sheetId="1" r:id="rId1"/>
     <sheet name="Item5" sheetId="2" r:id="rId2"/>
     <sheet name="Item6" sheetId="3" r:id="rId3"/>
-    <sheet name="Item10" sheetId="4" r:id="rId4"/>
-    <sheet name="Item11" sheetId="5" r:id="rId5"/>
+    <sheet name="Item11" sheetId="5" r:id="rId4"/>
+    <sheet name="Item10" sheetId="4" r:id="rId5"/>
     <sheet name="Item12" sheetId="6" r:id="rId6"/>
     <sheet name="Item16" sheetId="9" r:id="rId7"/>
     <sheet name="Item17" sheetId="7" r:id="rId8"/>
@@ -50,7 +50,7 @@
     <author>tc={6A34977C-8074-41EF-A180-2725FA7B9EB8}</author>
   </authors>
   <commentList>
-    <comment ref="F11" authorId="0" shapeId="0" xr:uid="{A9926970-EC14-4473-9DBA-534A6EBD8A2E}">
+    <comment ref="J11" authorId="0" shapeId="0" xr:uid="{A9926970-EC14-4473-9DBA-534A6EBD8A2E}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -58,7 +58,7 @@
     Is this the right way to handle replaced words?</t>
       </text>
     </comment>
-    <comment ref="C14" authorId="1" shapeId="0" xr:uid="{6A34977C-8074-41EF-A180-2725FA7B9EB8}">
+    <comment ref="D14" authorId="1" shapeId="0" xr:uid="{6A34977C-8074-41EF-A180-2725FA7B9EB8}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -73,6 +73,24 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>tc={36603010-D106-4A79-98A7-388494AECCC5}</author>
+  </authors>
+  <commentList>
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{36603010-D106-4A79-98A7-388494AECCC5}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Extra words at sentence beginning</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
     <author>tc={D6BA1719-3DE3-4E04-B5E2-7977944665EB}</author>
   </authors>
   <commentList>
@@ -82,24 +100,6 @@
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Extra words at end again</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={36603010-D106-4A79-98A7-388494AECCC5}</author>
-  </authors>
-  <commentList>
-    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{36603010-D106-4A79-98A7-388494AECCC5}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Extra words at sentence beginning</t>
       </text>
     </comment>
   </commentList>
@@ -192,7 +192,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="216">
   <si>
     <t>Die Häuser sind nicht sehr schön und viel zu teuer.</t>
   </si>
@@ -825,13 +825,28 @@
   </si>
   <si>
     <t>einer</t>
+  </si>
+  <si>
+    <t>Lingpy 1</t>
+  </si>
+  <si>
+    <t>Lingpy 2</t>
+  </si>
+  <si>
+    <t>Lingpy 3</t>
+  </si>
+  <si>
+    <t>Lingpy 4</t>
+  </si>
+  <si>
+    <t>Lingpy 5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -862,12 +877,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -877,7 +886,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -946,25 +955,196 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1305,10 +1485,10 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="F11" dT="2024-06-11T19:02:36.98" personId="{53732A36-0EFD-4824-AE4B-25203566D6EB}" id="{A9926970-EC14-4473-9DBA-534A6EBD8A2E}">
+  <threadedComment ref="J11" dT="2024-06-11T19:02:36.98" personId="{53732A36-0EFD-4824-AE4B-25203566D6EB}" id="{A9926970-EC14-4473-9DBA-534A6EBD8A2E}">
     <text>Is this the right way to handle replaced words?</text>
   </threadedComment>
-  <threadedComment ref="C14" dT="2024-06-11T19:11:53.45" personId="{53732A36-0EFD-4824-AE4B-25203566D6EB}" id="{6A34977C-8074-41EF-A180-2725FA7B9EB8}">
+  <threadedComment ref="D14" dT="2024-06-11T19:11:53.45" personId="{53732A36-0EFD-4824-AE4B-25203566D6EB}" id="{6A34977C-8074-41EF-A180-2725FA7B9EB8}">
     <text>Extra words at sentence end</text>
   </threadedComment>
 </ThreadedComments>
@@ -1316,16 +1496,16 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="B13" dT="2024-06-11T19:12:04.69" personId="{53732A36-0EFD-4824-AE4B-25203566D6EB}" id="{D6BA1719-3DE3-4E04-B5E2-7977944665EB}">
-    <text>Extra words at end again</text>
+  <threadedComment ref="F4" dT="2024-06-11T19:11:37.67" personId="{53732A36-0EFD-4824-AE4B-25203566D6EB}" id="{36603010-D106-4A79-98A7-388494AECCC5}">
+    <text>Extra words at sentence beginning</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="F4" dT="2024-06-11T19:11:37.67" personId="{53732A36-0EFD-4824-AE4B-25203566D6EB}" id="{36603010-D106-4A79-98A7-388494AECCC5}">
-    <text>Extra words at sentence beginning</text>
+  <threadedComment ref="B13" dT="2024-06-11T19:12:04.69" personId="{53732A36-0EFD-4824-AE4B-25203566D6EB}" id="{D6BA1719-3DE3-4E04-B5E2-7977944665EB}">
+    <text>Extra words at end again</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -1359,242 +1539,389 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADBF60F1-5743-407F-B6DC-F59E2D80B2FE}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="11.42578125" customWidth="1"/>
+    <col min="1" max="11" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="G3" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="H3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="I3" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="J3" s="11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="str" cm="1">
+      <c r="K3" s="10" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="str" cm="1">
         <f t="array" ref="A4:A13">_xlfn.TEXTSPLIT(A1, ," ")</f>
         <v>Die</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="G4" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" s="12" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="str">
+      <c r="I4" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="str">
         <v>Häuser</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="G5" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" s="7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="str">
+      <c r="I5" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="str">
         <v>sind</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="str">
+      <c r="G6" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="str">
         <v>nicht</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="5" t="s">
+      <c r="C7" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="G7" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F7" t="s">
+      <c r="H7" s="7" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="str">
+      <c r="I7" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="str">
         <v>sehr</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5" t="s">
+      <c r="C8" s="18"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="G8" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F8" t="s">
+      <c r="I8" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="str">
+      <c r="K8" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="str">
         <v>schön</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5" t="s">
+      <c r="C9" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="G9" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F9" t="s">
+      <c r="H9" s="7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="str">
+      <c r="I9" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="str">
         <v>und</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5" t="s">
+      <c r="C10" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="D10" s="7"/>
+      <c r="E10" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" s="17" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="str">
+      <c r="H10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="str">
         <v>viel</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5" t="s">
+      <c r="C11" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="I11" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="J11" s="13" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="str">
+      <c r="K11" s="20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="str">
         <v>zu</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5" t="s">
+      <c r="B12" s="22"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F12" t="s">
+      <c r="I12" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="str">
+      <c r="K12" s="21"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="str">
         <v>teuer.</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5" t="s">
+      <c r="C13" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F13" t="s">
+      <c r="D13" s="7"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="7" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="I13" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="11" t="s">
+      <c r="B14" s="6"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E14" s="16"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="9"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1602,7 +1929,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2</v>
       </c>
@@ -1610,7 +1937,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>3</v>
       </c>
@@ -1618,7 +1945,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>4</v>
       </c>
@@ -1626,7 +1953,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>5</v>
       </c>
@@ -1635,8 +1962,14 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="7">
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="K11:K12"/>
     <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="E10:E13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -1645,190 +1978,300 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{877ABC3B-6619-488B-9984-86AC8372237F}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="11.28515625" customWidth="1"/>
+    <col min="1" max="10" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="G3" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="H3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="I3" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="J3" s="11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="str" cm="1">
+      <c r="K3" s="10" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="str" cm="1">
         <f t="array" ref="A4:A11">_xlfn.TEXTSPLIT(A1, ," ")</f>
         <v>Der</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="12"/>
+      <c r="G4" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="F4" t="s">
+      <c r="I4" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="J4" s="12" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="str">
+      <c r="K4" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="str">
         <v>Junge,</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="F5" t="s">
+      <c r="I5" s="16" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="str">
+      <c r="J5" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="str">
         <v>dessen</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="18"/>
+      <c r="D6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="F6" t="s">
+      <c r="I6" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="J6" s="7" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="str">
+      <c r="K6" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="str">
         <v>Katze</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="19"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="F7" t="s">
+      <c r="I7" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="str">
+      <c r="K7" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="str">
         <v>gestern</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="19"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F8" t="s">
+      <c r="I8" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="str">
+      <c r="K8" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="str">
         <v>starb,</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5" t="s">
+      <c r="C9" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="F9" t="s">
+      <c r="I9" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" s="7" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="str">
+      <c r="K9" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="str">
         <v>ist</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5" t="s">
+      <c r="B10" s="7"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="G10" s="18"/>
+      <c r="H10" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F10" t="s">
+      <c r="I10" s="16" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="str">
+      <c r="J10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="str">
         <v>traurig.</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5" t="s">
+      <c r="B11" s="7"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="G11" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="F11" t="s">
+      <c r="H11" s="7" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I11" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1869,194 +2312,321 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="G4:G10"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD49F9E2-F02F-4742-BB5B-151502069BA8}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="11" customWidth="1"/>
+    <col min="1" max="9" width="11" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="G3" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="H3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="I3" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="J3" s="11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="str" cm="1">
+      <c r="K3" s="10" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="str" cm="1">
         <f t="array" ref="A4:A10">_xlfn.TEXTSPLIT(A1, ," ")</f>
         <v>Das</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="F4" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="G4" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="H4" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="I4" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="J4" s="12" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="str">
+      <c r="K4" s="12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="str">
         <v>Restaurant</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="F5" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="F5" t="s">
+      <c r="I5" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="str">
+      <c r="K5" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="str">
         <v>sollte</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="E6" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="G6" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="H6" s="7" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="str">
+      <c r="I6" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="str">
         <v>sehr</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="7" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="str">
+      <c r="G7" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="str">
         <v>gutes</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="E8" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="G8" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="H8" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="str">
+      <c r="K8" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="str">
         <v>Essen</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5" t="s">
+      <c r="C9" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="G9" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="H9" s="7" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="str">
+      <c r="I9" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="str">
         <v>haben.</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5" t="s">
+      <c r="C10" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="D10" s="7"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="G10" s="16" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H10" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -2064,7 +2634,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2</v>
       </c>
@@ -2097,11 +2667,283 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E8:E10"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E50BC9D-F304-4CAE-B819-AF69CE9588B8}">
+  <dimension ref="A1:F22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="6" width="11.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="str" cm="1">
+        <f t="array" ref="A4:A14">_xlfn.TEXTSPLIT(A1, ," ")</f>
+        <v>Den</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="F4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="str">
+        <v>meisten</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="F5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="str">
+        <v>Spaß</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="str">
+        <v>hatte</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="str">
+        <v>ich</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="str">
+        <v>als</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="F9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="str">
+        <v>wir</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="str">
+        <v>in</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F11" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="str">
+        <v>der</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="str">
+        <v>Oper</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="F13" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="str">
+        <v>waren.</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="F14" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3615977F-F844-4157-812F-A1BAF0B42B87}">
   <dimension ref="A1:F21"/>
   <sheetViews>
@@ -2303,16 +3145,16 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -2366,275 +3208,6 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E50BC9D-F304-4CAE-B819-AF69CE9588B8}">
-  <dimension ref="A1:F22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="6" width="11.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="str" cm="1">
-        <f t="array" ref="A4:A14">_xlfn.TEXTSPLIT(A1, ," ")</f>
-        <v>Den</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="F4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="str">
-        <v>meisten</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="F5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="str">
-        <v>Spaß</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="F6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="str">
-        <v>hatte</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="F7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="str">
-        <v>ich</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="F8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="str">
-        <v>als</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="F9" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="str">
-        <v>wir</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="F10" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="str">
-        <v>in</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F11" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="str">
-        <v>der</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="F12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="str">
-        <v>Oper</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="F13" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="str">
-        <v>waren.</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="F14" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>1</v>
-      </c>
-      <c r="B18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>2</v>
-      </c>
-      <c r="B19" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>3</v>
-      </c>
-      <c r="B20" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>4</v>
-      </c>
-      <c r="B21" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>5</v>
-      </c>
-      <c r="B22" t="s">
-        <v>59</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2771,7 +3344,7 @@
       <c r="E8" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="5" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3539,7 +4112,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8BEA853-816D-4388-8CFC-05C4383DF123}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
